--- a/stocUCED/datasets/NREL Generator Info/Generators.xlsx
+++ b/stocUCED/datasets/NREL Generator Info/Generators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/semihatakan/Documents/Coding Projects/Power Systems/tamingDuck/tamingDuck/stocUCED/datasets/NREL Generator Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B04318-1D54-6043-943B-72B06197E386}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE826F-EC17-9C41-8176-AB7E55E5091F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -14179,7 +14179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5E16CC-5294-AE4F-9367-6FECD8D006D4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14527,7 +14529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V328"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="K321" sqref="K321"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39511,8 +39515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED4EC40-F4F9-0F4F-A0F4-48F508748C75}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
